--- a/src/test/java/org/hy/common/pdf/junit/alipay/Template.xlsx
+++ b/src/test/java/org/hy/common/pdf/junit/alipay/Template.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\hy.common.pdf\src\test\java\org\hy\common\pdf\junit\alipay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858563E7-1CBB-444C-9FD9-4FCF9445E5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A062B5C9-2F1C-4762-A060-0BD20525280A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{C29C973B-66EF-4B54-A60C-ADB39AD5F6B3}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{C29C973B-66EF-4B54-A60C-ADB39AD5F6B3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="正常的" sheetId="3" r:id="rId1"/>
+    <sheet name="退款的" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">退款的!$A$1:$C$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">正常的!$A$1:$C$26</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>Name:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +97,22 @@
   </si>
   <si>
     <t xml:space="preserve">  Voyager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Booking Status:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refund Details</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refunded Amount:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-Refundable Amount:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -343,6 +361,61 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>100013</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2367730</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3F9CADF-3D84-4F88-B82D-2F0DB5A9E986}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="100013" y="100012"/>
+          <a:ext cx="2267717" cy="533401"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -693,10 +766,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E0A6CF-EEA7-45B1-9B7B-42EFE2E7C939}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56E30A4-D81D-4E8A-98F3-B2FF032AC6D3}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
@@ -836,6 +909,192 @@
       <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:2" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A14:B14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E0A6CF-EEA7-45B1-9B7B-42EFE2E7C939}">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="40.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+    </row>
+    <row r="7" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+    </row>
+    <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+    </row>
+    <row r="9" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="14"/>
+    </row>
+    <row r="11" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="12"/>
+    </row>
+    <row r="12" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="12"/>
+    </row>
+    <row r="15" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="9"/>
+    </row>
+    <row r="19" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="9"/>
+    </row>
+    <row r="20" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="9"/>
+    </row>
+    <row r="21" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="9"/>
+    </row>
+    <row r="24" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:2" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A11:B11"/>

--- a/src/test/java/org/hy/common/pdf/junit/alipay/Template.xlsx
+++ b/src/test/java/org/hy/common/pdf/junit/alipay/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\hy.common.pdf\src\test\java\org\hy\common\pdf\junit\alipay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A062B5C9-2F1C-4762-A060-0BD20525280A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6886DB9B-E0D7-4FFA-A0C8-CEE8639E13B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{C29C973B-66EF-4B54-A60C-ADB39AD5F6B3}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>Name:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +113,10 @@
   </si>
   <si>
     <t>Non-Refundable Amount:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This receipt is auto generated and no signature required.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -120,7 +124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +166,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -294,7 +306,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -328,19 +340,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -767,16 +782,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56E30A4-D81D-4E8A-98F3-B2FF032AC6D3}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="40.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.59765625" customWidth="1"/>
+    <col min="2" max="2" width="44.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -801,32 +816,32 @@
       <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="15"/>
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
@@ -841,10 +856,10 @@
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="15"/>
     </row>
     <row r="15" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9" t="s">
@@ -909,14 +924,21 @@
       <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:2" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+      <c r="A26" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -927,16 +949,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E0A6CF-EEA7-45B1-9B7B-42EFE2E7C939}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B13" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="40.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.59765625" customWidth="1"/>
+    <col min="2" max="2" width="44.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -961,32 +983,32 @@
       <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="15"/>
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
@@ -1001,10 +1023,10 @@
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="15"/>
     </row>
     <row r="15" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9" t="s">
@@ -1095,8 +1117,15 @@
       <c r="B28" s="4"/>
     </row>
     <row r="29" spans="1:2" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+      <c r="A30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A10:B10"/>

--- a/src/test/java/org/hy/common/pdf/junit/alipay/Template.xlsx
+++ b/src/test/java/org/hy/common/pdf/junit/alipay/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\hy.common.pdf\src\test\java\org\hy\common\pdf\junit\alipay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6886DB9B-E0D7-4FFA-A0C8-CEE8639E13B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7295B094-6D09-4B2A-92FD-9653354ED248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{C29C973B-66EF-4B54-A60C-ADB39AD5F6B3}"/>
   </bookViews>
@@ -88,10 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Grand Total (Paid via [wallet name])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>E-Receipt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,6 +113,10 @@
   </si>
   <si>
     <t>This receipt is auto generated and no signature required.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grand Total</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -340,6 +340,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -348,15 +357,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -785,7 +785,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -807,7 +807,7 @@
     </row>
     <row r="4" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="7"/>
     </row>
@@ -816,32 +816,32 @@
       <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="13"/>
+      <c r="A10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="16"/>
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="12"/>
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
@@ -856,10 +856,10 @@
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="12"/>
     </row>
     <row r="15" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9" t="s">
@@ -919,16 +919,16 @@
     </row>
     <row r="24" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:2" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.4">
-      <c r="A26" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="16"/>
+      <c r="A26" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -952,7 +952,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B13" sqref="B1:B1048576"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -974,7 +974,7 @@
     </row>
     <row r="4" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="7"/>
     </row>
@@ -983,32 +983,32 @@
       <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="13"/>
+      <c r="A10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="16"/>
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="12"/>
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
@@ -1023,10 +1023,10 @@
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="12"/>
     </row>
     <row r="15" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9" t="s">
@@ -1036,7 +1036,7 @@
     </row>
     <row r="16" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="9"/>
     </row>
@@ -1092,13 +1092,13 @@
     </row>
     <row r="25" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B25" s="10"/>
     </row>
     <row r="26" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>11</v>
@@ -1106,22 +1106,22 @@
     </row>
     <row r="27" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27" s="10"/>
     </row>
     <row r="28" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" s="4"/>
     </row>
     <row r="29" spans="1:2" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.4">
-      <c r="A30" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="16"/>
+      <c r="A30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/src/test/java/org/hy/common/pdf/junit/alipay/Template.xlsx
+++ b/src/test/java/org/hy/common/pdf/junit/alipay/Template.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\hy.common.pdf\src\test\java\org\hy\common\pdf\junit\alipay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7295B094-6D09-4B2A-92FD-9653354ED248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57AA206-2361-4A03-BB31-B3A38AC73B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{C29C973B-66EF-4B54-A60C-ADB39AD5F6B3}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{C29C973B-66EF-4B54-A60C-ADB39AD5F6B3}"/>
   </bookViews>
   <sheets>
-    <sheet name="正常的" sheetId="3" r:id="rId1"/>
-    <sheet name="退款的" sheetId="1" r:id="rId2"/>
+    <sheet name="正常的 (无字)" sheetId="4" r:id="rId1"/>
+    <sheet name="正常的" sheetId="3" r:id="rId2"/>
+    <sheet name="退款的" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">退款的!$A$1:$C$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">正常的!$A$1:$C$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">退款的!$A$1:$C$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">正常的!$A$1:$C$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'正常的 (无字)'!$A$1:$C$26</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>Name:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -395,6 +397,61 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDC5AEEC-FBA8-42FC-8563-05DF611B0406}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="100013" y="100012"/>
+          <a:ext cx="2267717" cy="533401"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>100013</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2367730</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3F9CADF-3D84-4F88-B82D-2F0DB5A9E986}"/>
             </a:ext>
           </a:extLst>
@@ -430,7 +487,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -781,11 +838,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75842F88-D7E8-4682-9700-32829A2D8D93}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="40.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+    </row>
+    <row r="7" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+    </row>
+    <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+    </row>
+    <row r="11" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+    </row>
+    <row r="12" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="3"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+    </row>
+    <row r="15" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="10"/>
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="10"/>
+      <c r="B18" s="9"/>
+    </row>
+    <row r="19" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+    </row>
+    <row r="20" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="3"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+    </row>
+    <row r="23" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="2"/>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+      <c r="A26" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A14:B14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56E30A4-D81D-4E8A-98F3-B2FF032AC6D3}">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A10" sqref="A10:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -947,12 +1139,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E0A6CF-EEA7-45B1-9B7B-42EFE2E7C939}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/src/test/java/org/hy/common/pdf/junit/alipay/Template.xlsx
+++ b/src/test/java/org/hy/common/pdf/junit/alipay/Template.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\hy.common.pdf\src\test\java\org\hy\common\pdf\junit\alipay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57AA206-2361-4A03-BB31-B3A38AC73B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C62BBA-3040-4C27-8169-983E27C45657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{C29C973B-66EF-4B54-A60C-ADB39AD5F6B3}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{C29C973B-66EF-4B54-A60C-ADB39AD5F6B3}"/>
   </bookViews>
   <sheets>
     <sheet name="正常的 (无字)" sheetId="4" r:id="rId1"/>
-    <sheet name="正常的" sheetId="3" r:id="rId2"/>
-    <sheet name="退款的" sheetId="1" r:id="rId3"/>
+    <sheet name="退款的 (无字)" sheetId="5" r:id="rId2"/>
+    <sheet name="正常的" sheetId="3" r:id="rId3"/>
+    <sheet name="退款的" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">退款的!$A$1:$C$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">正常的!$A$1:$C$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">退款的!$A$1:$C$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'退款的 (无字)'!$A$1:$C$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">正常的!$A$1:$C$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'正常的 (无字)'!$A$1:$C$26</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -452,6 +454,61 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10BDE796-AAD3-4F91-84A2-E92959647223}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="100013" y="100012"/>
+          <a:ext cx="2267717" cy="533401"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>100013</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2367730</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3F9CADF-3D84-4F88-B82D-2F0DB5A9E986}"/>
             </a:ext>
           </a:extLst>
@@ -487,7 +544,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -841,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75842F88-D7E8-4682-9700-32829A2D8D93}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -950,9 +1007,7 @@
     </row>
     <row r="25" spans="1:2" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.4">
-      <c r="A26" s="13" t="s">
-        <v>20</v>
-      </c>
+      <c r="A26" s="13"/>
       <c r="B26" s="13"/>
     </row>
   </sheetData>
@@ -973,11 +1028,160 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F044E106-EBE7-45E3-AE80-28BF580EC036}">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="40.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+    </row>
+    <row r="7" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+    </row>
+    <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+    </row>
+    <row r="11" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+    </row>
+    <row r="12" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="3"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+    </row>
+    <row r="15" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="10"/>
+      <c r="B18" s="9"/>
+    </row>
+    <row r="19" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="10"/>
+      <c r="B19" s="9"/>
+    </row>
+    <row r="20" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+    </row>
+    <row r="21" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="3"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+    </row>
+    <row r="24" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="2"/>
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:2" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A14:B14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56E30A4-D81D-4E8A-98F3-B2FF032AC6D3}">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B24"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1139,7 +1343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E0A6CF-EEA7-45B1-9B7B-42EFE2E7C939}">
   <dimension ref="A1:B30"/>
   <sheetViews>

--- a/src/test/java/org/hy/common/pdf/junit/alipay/Template.xlsx
+++ b/src/test/java/org/hy/common/pdf/junit/alipay/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\hy.common.pdf\src\test\java\org\hy\common\pdf\junit\alipay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C62BBA-3040-4C27-8169-983E27C45657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7769BF69-BF44-4D51-9A4C-654C1963F0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{C29C973B-66EF-4B54-A60C-ADB39AD5F6B3}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{C29C973B-66EF-4B54-A60C-ADB39AD5F6B3}"/>
   </bookViews>
   <sheets>
     <sheet name="正常的 (无字)" sheetId="4" r:id="rId1"/>
@@ -20,9 +20,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">退款的!$A$1:$C$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'退款的 (无字)'!$A$1:$C$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'退款的 (无字)'!$A$1:$C$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">正常的!$A$1:$C$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'正常的 (无字)'!$A$1:$C$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'正常的 (无字)'!$A$1:$C$31</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -344,22 +344,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -896,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75842F88-D7E8-4682-9700-32829A2D8D93}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:B26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -930,28 +930,28 @@
       <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9"/>
@@ -962,8 +962,8 @@
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
     </row>
     <row r="15" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9"/>
@@ -994,25 +994,45 @@
       <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-    </row>
-    <row r="24" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="2"/>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:2" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.4">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+    </row>
+    <row r="24" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+    </row>
+    <row r="25" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+    </row>
+    <row r="26" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+    </row>
+    <row r="27" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+    </row>
+    <row r="28" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="2"/>
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:2" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A31:B31"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
@@ -1029,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F044E106-EBE7-45E3-AE80-28BF580EC036}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:B30"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1063,28 +1083,28 @@
       <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9"/>
@@ -1095,8 +1115,8 @@
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
     </row>
     <row r="15" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9"/>
@@ -1131,37 +1151,57 @@
       <c r="B22" s="6"/>
     </row>
     <row r="23" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
     </row>
     <row r="25" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
     </row>
     <row r="26" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
     </row>
     <row r="27" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-    </row>
-    <row r="28" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="2"/>
-      <c r="B28" s="4"/>
-    </row>
-    <row r="29" spans="1:2" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
-    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.4">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+    </row>
+    <row r="28" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+    </row>
+    <row r="29" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="2"/>
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:2" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+    </row>
+    <row r="32" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="2"/>
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:2" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A35:B35"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
@@ -1181,7 +1221,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A22" sqref="A22:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1212,32 +1252,32 @@
       <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="16"/>
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
@@ -1252,10 +1292,10 @@
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="16"/>
     </row>
     <row r="15" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9" t="s">
@@ -1321,10 +1361,10 @@
     </row>
     <row r="25" spans="1:2" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.4">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="13"/>
+      <c r="B26" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1379,32 +1419,32 @@
       <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="16"/>
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
@@ -1419,10 +1459,10 @@
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="16"/>
     </row>
     <row r="15" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9" t="s">
@@ -1514,10 +1554,10 @@
     </row>
     <row r="29" spans="1:2" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.4">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="13"/>
+      <c r="B30" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/src/test/java/org/hy/common/pdf/junit/alipay/Template.xlsx
+++ b/src/test/java/org/hy/common/pdf/junit/alipay/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\hy.common.pdf\src\test\java\org\hy\common\pdf\junit\alipay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7769BF69-BF44-4D51-9A4C-654C1963F0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7FC154-DD29-4D69-8C8E-470037A31109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{C29C973B-66EF-4B54-A60C-ADB39AD5F6B3}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{C29C973B-66EF-4B54-A60C-ADB39AD5F6B3}"/>
   </bookViews>
   <sheets>
     <sheet name="正常的 (无字)" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">退款的!$A$1:$C$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'退款的 (无字)'!$A$1:$C$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'退款的 (无字)'!$A$1:$C$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">正常的!$A$1:$C$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'正常的 (无字)'!$A$1:$C$31</definedName>
   </definedNames>
@@ -193,7 +193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -304,13 +304,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="4"/>
+      </left>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -342,6 +355,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -898,7 +914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75842F88-D7E8-4682-9700-32829A2D8D93}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -930,28 +946,28 @@
       <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9"/>
@@ -962,8 +978,8 @@
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
     </row>
     <row r="15" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9"/>
@@ -1027,8 +1043,8 @@
     </row>
     <row r="30" spans="1:2" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.4">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1049,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F044E106-EBE7-45E3-AE80-28BF580EC036}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1083,28 +1099,28 @@
       <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9"/>
@@ -1115,8 +1131,8 @@
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
     </row>
     <row r="15" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9"/>
@@ -1127,7 +1143,7 @@
       <c r="B16" s="9"/>
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="9"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="9"/>
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1135,24 +1151,24 @@
       <c r="B18" s="9"/>
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="10"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="9"/>
     </row>
     <row r="20" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="3"/>
-      <c r="B21" s="1"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
     </row>
     <row r="24" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="9"/>
@@ -1171,37 +1187,33 @@
       <c r="B27" s="9"/>
     </row>
     <row r="28" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
     </row>
     <row r="29" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-    </row>
-    <row r="30" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="2"/>
-      <c r="B30" s="10"/>
-    </row>
-    <row r="31" spans="1:2" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-    </row>
-    <row r="32" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-    </row>
-    <row r="33" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="2"/>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:2" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
-    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.4">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+    </row>
+    <row r="30" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+    </row>
+    <row r="31" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+    </row>
+    <row r="32" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="2"/>
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="1:2" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A34:B34"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
@@ -1252,32 +1264,32 @@
       <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="15"/>
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="17"/>
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
@@ -1292,10 +1304,10 @@
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="16"/>
+      <c r="B14" s="17"/>
     </row>
     <row r="15" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9" t="s">
@@ -1361,10 +1373,10 @@
     </row>
     <row r="25" spans="1:2" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.4">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1419,32 +1431,32 @@
       <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="15"/>
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="17"/>
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
@@ -1459,10 +1471,10 @@
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="16"/>
+      <c r="B14" s="17"/>
     </row>
     <row r="15" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9" t="s">
@@ -1554,10 +1566,10 @@
     </row>
     <row r="29" spans="1:2" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.4">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="11"/>
+      <c r="B30" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/src/test/java/org/hy/common/pdf/junit/alipay/Template.xlsx
+++ b/src/test/java/org/hy/common/pdf/junit/alipay/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\hy.common.pdf\src\test\java\org\hy\common\pdf\junit\alipay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7FC154-DD29-4D69-8C8E-470037A31109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F331F6-2279-4FE4-B433-DAC68622AF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{C29C973B-66EF-4B54-A60C-ADB39AD5F6B3}"/>
   </bookViews>
@@ -193,7 +193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -305,10 +305,113 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color theme="4"/>
       </left>
-      <right style="thick">
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
         <color theme="4"/>
       </right>
       <top style="thin">
@@ -317,13 +420,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -357,7 +471,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -366,6 +504,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -377,6 +527,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -912,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75842F88-D7E8-4682-9700-32829A2D8D93}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -924,127 +1077,144 @@
     <col min="2" max="2" width="44.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="7"/>
     </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="7"/>
     </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
     </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="10"/>
-      <c r="B17" s="9"/>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="10"/>
-      <c r="B18" s="9"/>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="3"/>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-    </row>
-    <row r="24" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-    </row>
-    <row r="25" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-    </row>
-    <row r="26" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-    </row>
-    <row r="27" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-    </row>
-    <row r="28" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-    </row>
-    <row r="29" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="2"/>
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" spans="1:2" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.4">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
+    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="14"/>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+    </row>
+    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="14"/>
+    </row>
+    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="14"/>
+    </row>
+    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="14"/>
+    </row>
+    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="14"/>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="14"/>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+    </row>
+    <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="14"/>
+    </row>
+    <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+    </row>
+    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+    </row>
+    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+    </row>
+    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+    </row>
+    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+    </row>
+    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="14"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B30" s="11"/>
+    </row>
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1065,10 +1235,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F044E106-EBE7-45E3-AE80-28BF580EC036}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1077,139 +1247,160 @@
     <col min="2" max="2" width="44.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="7"/>
     </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="7"/>
     </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
     </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="10"/>
-      <c r="B17" s="9"/>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="10"/>
-      <c r="B18" s="9"/>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="3"/>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-    </row>
-    <row r="24" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-    </row>
-    <row r="25" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-    </row>
-    <row r="26" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-    </row>
-    <row r="27" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-    </row>
-    <row r="28" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-    </row>
-    <row r="29" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-    </row>
-    <row r="30" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-    </row>
-    <row r="31" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-    </row>
-    <row r="32" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="2"/>
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="1:2" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="14"/>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+    </row>
+    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="30"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="14"/>
+    </row>
+    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="14"/>
+    </row>
+    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+    </row>
+    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="14"/>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="14"/>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="14"/>
+    </row>
+    <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+    </row>
+    <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+    </row>
+    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+    </row>
+    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+    </row>
+    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+    </row>
+    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+    </row>
+    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="14"/>
+    </row>
+    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="17"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="14"/>
+    </row>
+    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="14"/>
+    </row>
+    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="14"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B33" s="11"/>
+    </row>
     <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.4">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1264,32 +1455,32 @@
       <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="27"/>
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="29"/>
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
@@ -1304,10 +1495,10 @@
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="29"/>
     </row>
     <row r="15" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9" t="s">
@@ -1373,10 +1564,10 @@
     </row>
     <row r="25" spans="1:2" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.4">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="12"/>
+      <c r="B26" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1431,32 +1622,32 @@
       <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="27"/>
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="29"/>
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
@@ -1471,10 +1662,10 @@
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="29"/>
     </row>
     <row r="15" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9" t="s">
@@ -1566,10 +1757,10 @@
     </row>
     <row r="29" spans="1:2" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.4">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="12"/>
+      <c r="B30" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">
